--- a/pred_ohlcv/54_21/2020-01-22 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4298.740380640002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7598.740380640002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-615926.8043193601</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-616392.56461936</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-617192.20441936</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-619162.20441936</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-618234.45791936</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WAVES ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-615926.8043193601</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-616392.56461936</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-617192.20441936</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-619162.20441936</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-618234.45791936</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
